--- a/doc/AlterNative DOCS/Performance/PT001.xlsx
+++ b/doc/AlterNative DOCS/Performance/PT001.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\AlterNative\doc\AlterNative DOCS\Performance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12585"/>
   </bookViews>
@@ -27,14 +32,14 @@
     <t>Memory C++</t>
   </si>
   <si>
-    <t>Memory alt</t>
+    <t>Memory AlterNative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,18 +109,519 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinaryTree!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BinaryTree!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BinaryTree!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>704000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinaryTree!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BinaryTree!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BinaryTree!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>423168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinaryTree!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory AlterNative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BinaryTree!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BinaryTree!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>532000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1353000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2671000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="337128560"/>
+        <c:axId val="337129120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="337128560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="337129120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337129120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="337128560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Memory allocation</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Binary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -130,6 +636,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>BinaryTree!$C$5:$C$16</c:f>
@@ -235,6 +753,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>BinaryTree!$C$5:$C$16</c:f>
@@ -335,11 +863,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Memory alt</c:v>
+                  <c:v>Memory AlterNative</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>BinaryTree!$C$5:$C$16</c:f>
@@ -431,427 +971,825 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89504000"/>
-        <c:axId val="89518080"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="233742768"/>
+        <c:axId val="233742208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89504000"/>
+        <c:axId val="233742768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89518080"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233742208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89518080"/>
+        <c:axId val="233742208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89504000"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233742768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BinaryTree!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Memory C#</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BinaryTree!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BinaryTree!$D$5:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3880</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3880</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3880</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3880</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3880</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15516</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20652</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31016</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70218</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>704000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BinaryTree!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Memory C++</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BinaryTree!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BinaryTree!$E$5:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1792</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27876</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49464</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96508</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>210000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>423168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BinaryTree!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Memory alt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BinaryTree!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BinaryTree!$F$5:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>532000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1353000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2671000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3300000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3300000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3300000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3300000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="89559808"/>
-        <c:axId val="89561344"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="89559808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89561344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="89561344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89559808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,19 +1797,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -889,19 +1827,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488452</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -962,7 +1900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,9 +1932,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,6 +1967,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1203,16 +2143,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>9</v>
       </c>
@@ -1240,7 +2180,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>10</v>
       </c>
@@ -1254,7 +2194,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>11</v>
       </c>
@@ -1268,7 +2208,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>12</v>
       </c>
@@ -1282,7 +2222,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>13</v>
       </c>
@@ -1296,7 +2236,7 @@
         <v>532000</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>14</v>
       </c>
@@ -1310,7 +2250,7 @@
         <v>1353000</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>15</v>
       </c>
@@ -1324,7 +2264,7 @@
         <v>2671000</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>16</v>
       </c>
@@ -1338,7 +2278,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <v>17</v>
       </c>
@@ -1352,7 +2292,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>18</v>
       </c>
@@ -1366,7 +2306,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>19</v>
       </c>
@@ -1380,7 +2320,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <v>20</v>
       </c>
@@ -1402,24 +2342,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
